--- a/assets/templates/formulir_tamu_undangan.xlsx
+++ b/assets/templates/formulir_tamu_undangan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xslan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Pemrograman\FLUTTER\PROJECT\iv_project_web_app\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39DA8AAB-2C26-4D14-B792-127A929F9AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1426992-38FD-41F3-A6BD-CF555D47C98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4FC39C77-3C30-4CB8-AC31-CB41927DD220}"/>
   </bookViews>
@@ -25,37 +25,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>WhatsApp</t>
+    <r>
+      <t xml:space="preserve">WhatsApp | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cth: 085640932234</t>
+    </r>
   </si>
   <si>
-    <t>Instansi</t>
+    <r>
+      <t xml:space="preserve">Instansi | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cth: Telkom/Perum X</t>
+    </r>
   </si>
   <si>
-    <t>Nama</t>
+    <r>
+      <t xml:space="preserve">Souvenir (1-10) | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cth: 1/2/3/.../9/10</t>
+    </r>
   </si>
   <si>
-    <t>cth: Dilan</t>
-  </si>
-  <si>
-    <t>cth: Telkom/Perum X</t>
-  </si>
-  <si>
-    <t>cth: 085640932234</t>
-  </si>
-  <si>
-    <t>cth: 1/2/3/4/5/6/7/8/9/10</t>
-  </si>
-  <si>
-    <t>Souvenir (1-10)</t>
+    <r>
+      <t xml:space="preserve">Nama | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cth: Dilan</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +110,13 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,12 +142,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,44 +472,35 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
+      <c r="A1" s="1" t="s">
+        <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="D2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
